--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_inverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_inverse_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="inverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="inverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="inverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="inverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="inverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>73.27961314544243</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6805988506103555</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7327961314544243</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.719811474189887</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.30341092916028</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5814417362213135</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7430341092916029</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7363025851695605</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.7763129438836</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4583677409837644</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8177631294388359</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8154973461381759</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>74.14424000207615</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7394629798684036</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7414424000207613</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.731688790589651</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.40781494649608</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9864397312824924</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6340781494649608</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6032556288852307</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>79.48528966513551</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6445094764387856</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7948528966513552</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7702090003581354</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.57065372537825</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7876167472451925</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6757065372537825</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6544150292193307</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>64.62581856244432</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8653649885983518</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6462581856244431</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6209851428834889</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>69.22516630766702</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.704758067925771</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6922516630766703</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6767386353907828</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>73.00063149335202</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6797257161699235</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7300063149335202</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7244586741882822</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>72.82364034290954</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8198063332277039</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7282364034290955</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7212271466241054</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65.60653638872309</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7734747397402921</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6560653638872308</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.642839105311647</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.0981842403481</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3124150118092075</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.900981842403481</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8988190498040407</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>88.15906711995778</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3176425750134513</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8815906711995778</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.879953629239991</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.81570774833692</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1260938041018865</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9581570774833692</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9576822528501369</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75.55480583742074</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6318478999491263</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7555480583742076</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7435922327228297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>56.32661182190158</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.058936111132304</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5632661182190157</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5511975402026852</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.13903234457045</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8706544713427624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6213903234457046</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5977119770261156</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.09313229353195</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6248926470677059</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7609313229353195</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7500386663272369</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.89899566605247</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8861733005692563</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6389899566605247</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6139559627431479</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.54439052240937</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8558206714689731</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6154439052240936</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5988786933284036</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>69.07274284379623</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6988447400430837</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6907274284379623</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6854581424336195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>49.75328506301958</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.096807943781217</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4975328506301958</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4559485087855951</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>46.92419484597617</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.291528962180018</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4692419484597618</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.404940841616544</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>57.67939169023954</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.02989281564951</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5767939169023953</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5618847235665727</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.20809003538093</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7994641770919164</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6520809003538093</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6374576163438845</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>50.71557712436959</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.385968096057574</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5071557712436958</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4735901934709991</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53.45824790871893</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.052189564704895</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5345824790871894</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5005886418462703</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80.71903736191489</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5432187104287246</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8071903736191489</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7910793444067356</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>86.59529926729469</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3632317686841512</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8659529926729469</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8654231405059738</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.43186359743596</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2019735366726915</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9343186359743596</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.934337641448409</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.90399282577415</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8506398344583189</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6490399282577416</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6281661089368129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_inverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_inverse_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="inverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="inverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="inverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="inverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="inverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="inverse_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="inverse_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="inverse_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="inverse_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.92677272294743</v>
+        <v>94.57227138643069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1250297407787002</v>
+        <v>0.1381402399592237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9492677272294744</v>
+        <v>0.9457227138643068</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9484978443892953</v>
+        <v>0.9444559968553191</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.419398091679</v>
+        <v>92.124066817187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2535679727438141</v>
+        <v>0.3043649515882521</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9241939809167899</v>
+        <v>0.9212406681718701</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9168355989673864</v>
+        <v>0.9124160041975902</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.10064100900527</v>
+        <v>95.45722713864306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194462043639578</v>
+        <v>0.140590849568495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9410064100900527</v>
+        <v>0.9545722713864307</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9356609178997799</v>
+        <v>0.9524089118439925</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.4896755162242</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0941315693345435</v>
+        <v>0.1680386624924722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9648967551622419</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9645043687015713</v>
+        <v>0.9296686339309799</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.24587582937569</v>
+        <v>83.07251792835578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.361446744518859</v>
+        <v>0.4173749149020295</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8324587582937568</v>
+        <v>0.8307251792835577</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8274367032057584</v>
+        <v>0.8140724723949336</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.15963805915275</v>
+        <v>91.06298497391846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1547984066671537</v>
+        <v>0.3054658658724899</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9415963805915275</v>
+        <v>0.9106298497391846</v>
       </c>
       <c r="E7" t="n">
-        <v>0.940685927160551</v>
+        <v>0.89369951246091</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.33038348082596</v>
+        <v>92.62536873156343</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1832332926972109</v>
+        <v>0.1818568726303056</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9233038348082596</v>
+        <v>0.9262536873156343</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9232676978540519</v>
+        <v>0.9264954325070512</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.53773821572851</v>
+        <v>93.39233038348083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1899999583220658</v>
+        <v>0.1655378622882078</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9253773821572852</v>
+        <v>0.9339233038348083</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9243034797251694</v>
+        <v>0.9307729395870838</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.42182890855457</v>
+        <v>93.09734513274336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2016576728938769</v>
+        <v>0.207132753253245</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9342182890855458</v>
+        <v>0.9309734513274336</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9309537648613186</v>
+        <v>0.9295212470108497</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.38643067846607</v>
+        <v>91.76991150442477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2034597142335466</v>
+        <v>0.210821102609619</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9138643067846608</v>
+        <v>0.9176991150442477</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9058753959867932</v>
+        <v>0.9099961646281471</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.95297537175927</v>
+        <v>84.60176991150442</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5443464455309974</v>
+        <v>0.5726741301211102</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8395297537175926</v>
+        <v>0.8460176991150442</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8270919399899276</v>
+        <v>0.8350343773196389</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.98247389683301</v>
+        <v>83.09734513274336</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5944916833812992</v>
+        <v>0.594557508812674</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8398247389683302</v>
+        <v>0.8309734513274336</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8251875407114578</v>
+        <v>0.8173243292563821</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.58407079646017</v>
+        <v>99.11504424778761</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04068589383767479</v>
+        <v>0.034439297853199</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9858407079646018</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9858390363369776</v>
+        <v>0.9911554471140855</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.64601769911505</v>
+        <v>99.43952802359881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0121405632781593</v>
+        <v>0.0178161134050337</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9964601769911503</v>
+        <v>0.9943952802359881</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9964611951867749</v>
+        <v>0.9944319289312367</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.43362831858408</v>
+        <v>95.89970501474926</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05508918828383145</v>
+        <v>0.0896987671509251</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9743362831858408</v>
+        <v>0.9589970501474927</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9736896841192625</v>
+        <v>0.9566053860767768</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.57450323964738</v>
+        <v>92.17738331069762</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2139027260094207</v>
+        <v>0.2365673261671521</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9257450323964739</v>
+        <v>0.9217738331069764</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9217527396730717</v>
+        <v>0.9158705856076651</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.9184422010571</v>
+        <v>90.14749262536873</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1946322816191241</v>
+        <v>0.2442365400182704</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9191844220105712</v>
+        <v>0.9014749262536874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9168131192840925</v>
+        <v>0.8998214472716551</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.23330651649236</v>
+        <v>86.64495367606986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4932436155382068</v>
+        <v>0.3287047677062219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8023330651649235</v>
+        <v>0.8664495367606986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7990356338622006</v>
+        <v>0.8585106507495214</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.29880016263117</v>
+        <v>91.03314042509018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2098897752313254</v>
+        <v>0.2309128721609643</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9129880016263117</v>
+        <v>0.9103314042509018</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9096668580386446</v>
+        <v>0.908674112994837</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95.5462417494961</v>
+        <v>87.96477478178876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1337853439724616</v>
+        <v>0.2848059815839709</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9554624174949611</v>
+        <v>0.8796477478178877</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9550816022048469</v>
+        <v>0.8788326181276827</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.73673647695914</v>
+        <v>74.84450557530775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5833006937085884</v>
+        <v>0.6684952277379732</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7673673647695914</v>
+        <v>0.7484450557530774</v>
       </c>
       <c r="E6" t="n">
-        <v>0.750536135409309</v>
+        <v>0.7347416285489453</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.76972984195365</v>
+        <v>86.6442616285608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2415350587611707</v>
+        <v>0.4106367947378507</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9076972984195365</v>
+        <v>0.8664426162856081</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9013357708995231</v>
+        <v>0.8518640029407299</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.42737393922093</v>
+        <v>84.27797818320228</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4051128688229558</v>
+        <v>0.3903832919352377</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8442737393922093</v>
+        <v>0.8427797818320227</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8422548999885237</v>
+        <v>0.8411165489364235</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.59152760837033</v>
+        <v>90.20648967551622</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220462662044641</v>
+        <v>0.2512259520396279</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9059152760837031</v>
+        <v>0.9020648967551622</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9064715141868523</v>
+        <v>0.8991129686360306</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.84573395963632</v>
+        <v>88.7910795076082</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3139877356545185</v>
+        <v>0.2811977058940102</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8684573395963632</v>
+        <v>0.8879107950760818</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8655562615038022</v>
+        <v>0.8872076276345897</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.95644425989845</v>
+        <v>86.07704218894627</v>
       </c>
       <c r="C11" t="n">
-        <v>0.414010769729551</v>
+        <v>0.3669942797918339</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8495644425989844</v>
+        <v>0.8607704218894627</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8401573903104363</v>
+        <v>0.8540185815600816</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.66275659824046</v>
+        <v>79.64636372286958</v>
       </c>
       <c r="C12" t="n">
-        <v>1.030743240670805</v>
+        <v>0.5958231347690647</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7466275659824048</v>
+        <v>0.7964636372286957</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7449661258527717</v>
+        <v>0.7949042531066952</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.79367468576717</v>
+        <v>82.15339233038348</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6331615689365815</v>
+        <v>0.5241344452835619</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7879367468576718</v>
+        <v>0.8215339233038348</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7740804501690334</v>
+        <v>0.8153290524160257</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.17109144542772</v>
+        <v>95.78171091445428</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05522336153256523</v>
+        <v>0.1078184698329702</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9817109144542773</v>
+        <v>0.9578171091445429</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9816818708551048</v>
+        <v>0.9586499527173098</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.67256637168143</v>
+        <v>96.28318584070796</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03695896599269873</v>
+        <v>0.09711865951691531</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9867256637168141</v>
+        <v>0.9628318584070797</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9867812793340551</v>
+        <v>0.9630622161973645</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.31858407079646</v>
+        <v>94.83775811209441</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04561629846801528</v>
+        <v>0.1338605236907218</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9831858407079647</v>
+        <v>0.9483775811209441</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9829141622617564</v>
+        <v>0.9450286800281482</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.12953399250858</v>
+        <v>87.6889419458646</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3341109493788806</v>
+        <v>0.327756576446613</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8812953399250857</v>
+        <v>0.876889419458646</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8771555382773969</v>
+        <v>0.8727249561244027</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83.5748579139958</v>
+        <v>84.87313904099517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4115180402877741</v>
+        <v>0.3676038783354064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8357485791399579</v>
+        <v>0.8487313904099517</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8302889053051332</v>
+        <v>0.8451635248697906</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.87344181178038</v>
+        <v>81.08461145857663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4985156203232085</v>
+        <v>0.4928762779609921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7987344181178038</v>
+        <v>0.8108461145857664</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7857868791052853</v>
+        <v>0.7944520041152233</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.22209534684556</v>
+        <v>88.79194456699453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4425022339031178</v>
+        <v>0.2749707601110761</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8422209534684557</v>
+        <v>0.8879194456699452</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8421215814401238</v>
+        <v>0.8874407476830694</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.91339025424095</v>
+        <v>81.83409891089023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2841507469459126</v>
+        <v>0.4990335420705378</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8791339025424095</v>
+        <v>0.8183409891089024</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8779243178534699</v>
+        <v>0.8055274503174413</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.31143868026541</v>
+        <v>68.22238946703692</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6909861765025804</v>
+        <v>0.8495599085697905</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7231143868026539</v>
+        <v>0.6822238946703691</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7059711138267054</v>
+        <v>0.6610808256523281</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.96337338558291</v>
+        <v>76.94599434251161</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4329023941420019</v>
+        <v>0.6037334796662133</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8596337338558293</v>
+        <v>0.7694599434251161</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8426775454283147</v>
+        <v>0.7567332786909386</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.30726044342944</v>
+        <v>77.5247190719643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8886231655104589</v>
+        <v>0.6286317884766807</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6930726044342944</v>
+        <v>0.7752471907196429</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6570741997916414</v>
+        <v>0.7539952300640328</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.8049031566017</v>
+        <v>82.72337996003425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6479471732551854</v>
+        <v>0.4571195601640891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.768049031566017</v>
+        <v>0.8272337996003426</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7583658656542671</v>
+        <v>0.8211334067362499</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.47122379951384</v>
+        <v>82.84033598906565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7261981070041656</v>
+        <v>0.4318356797797606</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7347122379951384</v>
+        <v>0.8284033598906564</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7134098818619368</v>
+        <v>0.8189165555266253</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.15839237363646</v>
+        <v>80.94602894488706</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4574777942073222</v>
+        <v>0.4900573580060154</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8015839237363644</v>
+        <v>0.8094602894488707</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7953379661069135</v>
+        <v>0.8033668787493286</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.23608335712247</v>
+        <v>62.58497045822196</v>
       </c>
       <c r="C12" t="n">
-        <v>0.922396323128002</v>
+        <v>1.172021558547082</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7123608335712246</v>
+        <v>0.6258497045822196</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7028051817139069</v>
+        <v>0.5946103888105668</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.02806252649245</v>
+        <v>75.33430219984602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7409725629414121</v>
+        <v>0.6861834021906057</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7402806252649244</v>
+        <v>0.7533430219984603</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7296799415581827</v>
+        <v>0.7434592051233871</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.66666666666666</v>
+        <v>88.61356932153392</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1154163924938378</v>
+        <v>0.3645536480243512</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9666666666666666</v>
+        <v>0.8861356932153391</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9664904305726016</v>
+        <v>0.8755266212178581</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.86239500341699</v>
+        <v>83.21931850621544</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1903576275634502</v>
+        <v>0.4563092134087735</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9286239500341699</v>
+        <v>0.8321931850621546</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9273787933393463</v>
+        <v>0.8195229735332428</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.96460176991151</v>
+        <v>84.01387555255668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06548128460302299</v>
+        <v>0.7847274570101338</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9796460176991151</v>
+        <v>0.8401387555255668</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9794688939878492</v>
+        <v>0.8206892377868853</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.75721243263349</v>
+        <v>79.97017851942202</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5010297095207634</v>
+        <v>0.5706145008214338</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8175721243263351</v>
+        <v>0.7997017851942202</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8076520998363785</v>
+        <v>0.7867745552584645</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.27961314544243</v>
+        <v>82.84241213159284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6805988506103555</v>
+        <v>0.4239956246514339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7327961314544243</v>
+        <v>0.8284241213159284</v>
       </c>
       <c r="E2" t="n">
-        <v>0.719811474189887</v>
+        <v>0.8239627949410817</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.30341092916028</v>
+        <v>82.25417174889057</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5814417362213135</v>
+        <v>0.4498642709416648</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7430341092916029</v>
+        <v>0.8225417174889056</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7363025851695605</v>
+        <v>0.8122420338354008</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.7763129438836</v>
+        <v>87.34772792152181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4583677409837644</v>
+        <v>0.3638223991496489</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8177631294388359</v>
+        <v>0.8734772792152181</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8154973461381759</v>
+        <v>0.8737858008445309</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.14424000207615</v>
+        <v>74.33481258488396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7394629798684036</v>
+        <v>0.725773835554719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7414424000207613</v>
+        <v>0.7433481258488396</v>
       </c>
       <c r="E5" t="n">
-        <v>0.731688790589651</v>
+        <v>0.7168056403494227</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.40781494649608</v>
+        <v>69.97474026591925</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9864397312824924</v>
+        <v>0.8984788921661675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6340781494649608</v>
+        <v>0.6997474026591926</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6032556288852307</v>
+        <v>0.6858309572655835</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.48528966513551</v>
+        <v>73.57650152682982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6445094764387856</v>
+        <v>0.8824170525496206</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7948528966513552</v>
+        <v>0.7357650152682982</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7702090003581354</v>
+        <v>0.712842115179028</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.57065372537825</v>
+        <v>79.05128937101532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7876167472451925</v>
+        <v>0.5662669941782952</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6757065372537825</v>
+        <v>0.7905128937101532</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6544150292193307</v>
+        <v>0.7854039162647823</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.62581856244432</v>
+        <v>82.10148876720386</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8653649885983518</v>
+        <v>0.4399591076808672</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6462581856244431</v>
+        <v>0.8210148876720387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6209851428834889</v>
+        <v>0.810518226234386</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69.22516630766702</v>
+        <v>79.27949203712835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.704758067925771</v>
+        <v>0.5597133204340935</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6922516630766703</v>
+        <v>0.7927949203712835</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6767386353907828</v>
+        <v>0.772300041690142</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73.00063149335202</v>
+        <v>81.48582600195503</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6797257161699235</v>
+        <v>0.4538532595460613</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7300063149335202</v>
+        <v>0.8148582600195503</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7244586741882822</v>
+        <v>0.8139897534156745</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.82364034290954</v>
+        <v>72.42977880431491</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8198063332277039</v>
+        <v>0.812554344162345</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7282364034290955</v>
+        <v>0.7242977880431491</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7212271466241054</v>
+        <v>0.7159080410206768</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.60653638872309</v>
+        <v>72.61178729919808</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7734747397402921</v>
+        <v>0.7359459115813176</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6560653638872308</v>
+        <v>0.7261178729919809</v>
       </c>
       <c r="E13" t="n">
-        <v>0.642839105311647</v>
+        <v>0.7202791362450177</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.0981842403481</v>
+        <v>89.94186800923885</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3124150118092075</v>
+        <v>0.3483086169542124</v>
       </c>
       <c r="D14" t="n">
-        <v>0.900981842403481</v>
+        <v>0.8994186800923882</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8988190498040407</v>
+        <v>0.8940892160872913</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.15906711995778</v>
+        <v>87.65845725309042</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3176425750134513</v>
+        <v>0.3569177943427349</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8815906711995778</v>
+        <v>0.8765845725309042</v>
       </c>
       <c r="E15" t="n">
-        <v>0.879953629239991</v>
+        <v>0.8752878857563721</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.81570774833692</v>
+        <v>93.03834808259587</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1260938041018865</v>
+        <v>0.2142366937056067</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9581570774833692</v>
+        <v>0.9303834808259588</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9576822528501369</v>
+        <v>0.923349803512116</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.55480583742074</v>
+        <v>80.52858012035858</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6318478999491263</v>
+        <v>0.5488072078399193</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7555480583742076</v>
+        <v>0.8052858012035861</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7435922327228297</v>
+        <v>0.7957730241761004</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.32661182190158</v>
+        <v>78.54237493403922</v>
       </c>
       <c r="C2" t="n">
-        <v>1.058936111132304</v>
+        <v>0.5585362527519464</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5632661182190157</v>
+        <v>0.7854237493403922</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5511975402026852</v>
+        <v>0.7787421691588325</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.13903234457045</v>
+        <v>76.07107327918062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8706544713427624</v>
+        <v>0.6908258821233175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6213903234457046</v>
+        <v>0.7607107327918061</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5977119770261156</v>
+        <v>0.7434490108009288</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.09313229353195</v>
+        <v>83.13324509727593</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6248926470677059</v>
+        <v>0.446541067181776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7609313229353195</v>
+        <v>0.8313324509727593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7500386663272369</v>
+        <v>0.8299856913671528</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.89899566605247</v>
+        <v>73.20452599070926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8861733005692563</v>
+        <v>0.804577793367207</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6389899566605247</v>
+        <v>0.7320452599070926</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6139559627431479</v>
+        <v>0.718983260363947</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.54439052240937</v>
+        <v>70.62786010259605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8558206714689731</v>
+        <v>0.7105339663724105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6154439052240936</v>
+        <v>0.7062786010259604</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5988786933284036</v>
+        <v>0.7010581900038046</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.07274284379623</v>
+        <v>74.26699192899592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6988447400430837</v>
+        <v>0.6404304239278039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6907274284379623</v>
+        <v>0.7426699192899593</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6854581424336195</v>
+        <v>0.7333758820659131</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.75328506301958</v>
+        <v>73.44968382079431</v>
       </c>
       <c r="C8" t="n">
-        <v>1.096807943781217</v>
+        <v>0.6672147203236818</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4975328506301958</v>
+        <v>0.734496838207943</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4559485087855951</v>
+        <v>0.7173022357594934</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46.92419484597617</v>
+        <v>71.73721225962163</v>
       </c>
       <c r="C9" t="n">
-        <v>1.291528962180018</v>
+        <v>0.7135646171557407</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4692419484597618</v>
+        <v>0.7173721225962162</v>
       </c>
       <c r="E9" t="n">
-        <v>0.404940841616544</v>
+        <v>0.6998128236178507</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57.67939169023954</v>
+        <v>77.18942205382399</v>
       </c>
       <c r="C10" t="n">
-        <v>1.02989281564951</v>
+        <v>0.5270417310297489</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5767939169023953</v>
+        <v>0.77189422053824</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5618847235665727</v>
+        <v>0.768872622370344</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.20809003538093</v>
+        <v>76.97618491509442</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7994641770919164</v>
+        <v>0.5617505807429553</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6520809003538093</v>
+        <v>0.7697618491509443</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6374576163438845</v>
+        <v>0.7606987606635569</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.71557712436959</v>
+        <v>62.50054066211645</v>
       </c>
       <c r="C12" t="n">
-        <v>1.385968096057574</v>
+        <v>1.040462236696234</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5071557712436958</v>
+        <v>0.6250054066211645</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4735901934709991</v>
+        <v>0.6117162678699894</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.45824790871893</v>
+        <v>71.49188141765933</v>
       </c>
       <c r="C13" t="n">
-        <v>1.052189564704895</v>
+        <v>0.7370068627099197</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5345824790871894</v>
+        <v>0.7149188141765933</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5005886418462703</v>
+        <v>0.7051596503142837</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.71903736191489</v>
+        <v>84.77945310945596</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5432187104287246</v>
+        <v>0.6170473464609434</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8071903736191489</v>
+        <v>0.8477945310945596</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7910793444067356</v>
+        <v>0.8367852214403018</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.59529926729469</v>
+        <v>88.98571786953174</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3632317686841512</v>
+        <v>0.3675694593490334</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8659529926729469</v>
+        <v>0.8898571786953176</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8654231405059738</v>
+        <v>0.8858569851401796</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.43186359743596</v>
+        <v>96.07859929584166</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2019735366726915</v>
+        <v>0.1330924787636225</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9343186359743596</v>
+        <v>0.9607859929584166</v>
       </c>
       <c r="E16" t="n">
-        <v>0.934337641448409</v>
+        <v>0.96059966122452</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.90399282577415</v>
+        <v>77.26898444911578</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8506398344583189</v>
+        <v>0.6144130279304227</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6490399282577416</v>
+        <v>0.7726898444911576</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6281661089368129</v>
+        <v>0.7634932288107399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>71.918701718873</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7263743275155623</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71918701718873</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7163381792296722</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>76.15636813467245</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6282146962359547</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7615636813467244</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.751433596311575</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.95867611311516</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4679823536115388</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8295867611311516</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8298454744889534</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>67.57705516483706</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.040831437334418</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6757705516483707</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6501370362293242</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.46058356906202</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.881830881536007</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6346058356906201</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6158566405575941</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.88345054888018</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8304200085500876</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6688345054888017</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6702303297728862</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>61.60200347753873</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.271053647591422</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6160200347753874</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5793637559451502</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>67.97593404787239</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8080132386957606</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6797593404787239</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6535519640518821</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>67.02367667540378</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7942123347272475</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6702367667540376</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6472800982593053</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>67.73475549096446</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8349421927084524</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6773475549096446</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6543983055817861</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>56.38353272952188</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.164874824881554</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5638353272952188</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5428300375358376</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>67.6025744167337</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8500189900398254</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6760257441673371</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6523691604241927</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>78.79203107293316</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6466765479824972</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7879203107293316</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7858808609304188</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.65151082621821</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4300585255395465</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8465151082621822</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8436030360787286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.0126471682281</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1944945251025881</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9201264716822809</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9197003730917206</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71.51556674365695</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7713332354701642</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7151556674365694</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7008545898992684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>68.9681571639893</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.742440223445495</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6896815716398932</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6818479749324087</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>69.13848735715706</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7582228803851951</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6913848735715706</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6711838575674399</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>80.68901980120935</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5212548214942216</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8068901980120936</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8051925087554881</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59.33736451007362</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.029309361676375</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5933736451007362</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5738814237096102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>56.15377295651346</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9569180189942321</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5615377295651347</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5517934088269486</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.58984939316085</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.817360548178355</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6658984939316084</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6610556332565886</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>62.11299405704202</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9727917894721031</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6211299405704201</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6084385502418959</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>65.02556250486596</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7725045253833135</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6502556250486596</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6309374816463096</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>65.73802541544477</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7616702978809674</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6573802541544478</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.650922354052448</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>67.83017154127631</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.781960965692997</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6783017154127631</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6569568886424093</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.12443014212926</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.107439009596904</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5412443014212925</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5198735345794141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>57.4022266628604</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9287929246822992</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5740222666286041</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5545588132880657</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>83.01974930578984</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4578111462295055</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8301974930578984</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.825052723233943</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.88992119308992</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3884761525473247</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8488992119308991</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8470253912787478</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>82.95391828649036</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4298973760722825</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8295391828649036</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8255184041224866</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68.26491001940617</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7617900027821047</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6826491001940617</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.670949263208947</v>
       </c>
     </row>
   </sheetData>
